--- a/bilgi_guvenligi.xlsx
+++ b/bilgi_guvenligi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\tarık ders hazırlama\Bilgi Güvenliği\13. hafta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguryasa\Desktop\react-native\rsa_sifreleme\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61B6D5-3842-4A41-B63D-57364EFD03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7060" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="429">
   <si>
     <t>5 Bit Primes</t>
   </si>
@@ -442,12 +437,888 @@
   </si>
   <si>
     <t>Şifrelecek sayı</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>989</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 728</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1176</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1260</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 559</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>0.0005028247833251953</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>256027</t>
+  </si>
+  <si>
+    <t>255016</t>
+  </si>
+  <si>
+    <t>8433</t>
+  </si>
+  <si>
+    <t>216639</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0</t>
+  </si>
+  <si>
+    <t>272123</t>
+  </si>
+  <si>
+    <t>271080</t>
+  </si>
+  <si>
+    <t>240943</t>
+  </si>
+  <si>
+    <t>232616</t>
+  </si>
+  <si>
+    <t>283189</t>
+  </si>
+  <si>
+    <t>282124</t>
+  </si>
+  <si>
+    <t>151331</t>
+  </si>
+  <si>
+    <t>190110</t>
+  </si>
+  <si>
+    <t>293323</t>
+  </si>
+  <si>
+    <t>292240</t>
+  </si>
+  <si>
+    <t>152639</t>
+  </si>
+  <si>
+    <t>267371</t>
+  </si>
+  <si>
+    <t>304583</t>
+  </si>
+  <si>
+    <t>303480</t>
+  </si>
+  <si>
+    <t>38387</t>
+  </si>
+  <si>
+    <t>18526</t>
+  </si>
+  <si>
+    <t>313591</t>
+  </si>
+  <si>
+    <t>312472</t>
+  </si>
+  <si>
+    <t>186823</t>
+  </si>
+  <si>
+    <t>42975</t>
+  </si>
+  <si>
+    <t>296449</t>
+  </si>
+  <si>
+    <t>295360</t>
+  </si>
+  <si>
+    <t>252673</t>
+  </si>
+  <si>
+    <t>172422</t>
+  </si>
+  <si>
+    <t>307829</t>
+  </si>
+  <si>
+    <t>306720</t>
+  </si>
+  <si>
+    <t>277019</t>
+  </si>
+  <si>
+    <t>35592</t>
+  </si>
+  <si>
+    <t>316933</t>
+  </si>
+  <si>
+    <t>315808</t>
+  </si>
+  <si>
+    <t>212209</t>
+  </si>
+  <si>
+    <t>113590</t>
+  </si>
+  <si>
+    <t>297587</t>
+  </si>
+  <si>
+    <t>296496</t>
+  </si>
+  <si>
+    <t>115457</t>
+  </si>
+  <si>
+    <t>98108</t>
+  </si>
+  <si>
+    <t>560505481</t>
+  </si>
+  <si>
+    <t>560458132</t>
+  </si>
+  <si>
+    <t>365056603</t>
+  </si>
+  <si>
+    <t>163889691</t>
+  </si>
+  <si>
+    <t>561262697</t>
+  </si>
+  <si>
+    <t>561215316</t>
+  </si>
+  <si>
+    <t>343707469</t>
+  </si>
+  <si>
+    <t>394058223</t>
+  </si>
+  <si>
+    <t>561452449</t>
+  </si>
+  <si>
+    <t>561405060</t>
+  </si>
+  <si>
+    <t>395920999</t>
+  </si>
+  <si>
+    <t>18901931</t>
+  </si>
+  <si>
+    <t>561879391</t>
+  </si>
+  <si>
+    <t>561831984</t>
+  </si>
+  <si>
+    <t>421157761</t>
+  </si>
+  <si>
+    <t>424728996</t>
+  </si>
+  <si>
+    <t>561830609</t>
+  </si>
+  <si>
+    <t>561783204</t>
+  </si>
+  <si>
+    <t>355708451</t>
+  </si>
+  <si>
+    <t>332085214</t>
+  </si>
+  <si>
+    <t>562020553</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 561973140</t>
+  </si>
+  <si>
+    <t>240647741</t>
+  </si>
+  <si>
+    <t>0.0010077953338623047</t>
+  </si>
+  <si>
+    <t>178317217</t>
+  </si>
+  <si>
+    <t>562400441</t>
+  </si>
+  <si>
+    <t>562353012</t>
+  </si>
+  <si>
+    <t>478884581</t>
+  </si>
+  <si>
+    <t>38795589</t>
+  </si>
+  <si>
+    <t>563160217</t>
+  </si>
+  <si>
+    <t>563112756</t>
+  </si>
+  <si>
+    <t>426315353</t>
+  </si>
+  <si>
+    <t>210806042</t>
+  </si>
+  <si>
+    <t>563682563</t>
+  </si>
+  <si>
+    <t>563635080</t>
+  </si>
+  <si>
+    <t>378288929</t>
+  </si>
+  <si>
+    <t>197525213</t>
+  </si>
+  <si>
+    <t>560837099</t>
+  </si>
+  <si>
+    <t>560789736</t>
+  </si>
+  <si>
+    <t>486778405</t>
+  </si>
+  <si>
+    <t>268654418</t>
+  </si>
+  <si>
+    <t>324754095943</t>
+  </si>
+  <si>
+    <t>324752956200</t>
+  </si>
+  <si>
+    <t>282016843291</t>
+  </si>
+  <si>
+    <t>0.0010073184967041016</t>
+  </si>
+  <si>
+    <t>70752236364</t>
+  </si>
+  <si>
+    <t>324764354017</t>
+  </si>
+  <si>
+    <t>324763214256</t>
+  </si>
+  <si>
+    <t>102087377537</t>
+  </si>
+  <si>
+    <t>68582263815</t>
+  </si>
+  <si>
+    <t>0.001008749008178711</t>
+  </si>
+  <si>
+    <t>324774612091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 324773472312</t>
+  </si>
+  <si>
+    <t>109489585309</t>
+  </si>
+  <si>
+    <t>190069109755</t>
+  </si>
+  <si>
+    <t>324780309089</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 324779169300</t>
+  </si>
+  <si>
+    <t>241698738517</t>
+  </si>
+  <si>
+    <t>38625644666</t>
+  </si>
+  <si>
+    <t>324790567991</t>
+  </si>
+  <si>
+    <t>324789428184</t>
+  </si>
+  <si>
+    <t>39097029301</t>
+  </si>
+  <si>
+    <t>262577969969</t>
+  </si>
+  <si>
+    <t>324804246527</t>
+  </si>
+  <si>
+    <t>324803106696</t>
+  </si>
+  <si>
+    <t>236805385079</t>
+  </si>
+  <si>
+    <t>206210680386</t>
+  </si>
+  <si>
+    <t>324809945917</t>
+  </si>
+  <si>
+    <t>324808806076</t>
+  </si>
+  <si>
+    <t>75434943429</t>
+  </si>
+  <si>
+    <t>150632939261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0006506443023681641</t>
+  </si>
+  <si>
+    <t>324765493483</t>
+  </si>
+  <si>
+    <t>324764353720</t>
+  </si>
+  <si>
+    <t>241169956631</t>
+  </si>
+  <si>
+    <t>141313531073</t>
+  </si>
+  <si>
+    <t>324783729563</t>
+  </si>
+  <si>
+    <t>324782589768</t>
+  </si>
+  <si>
+    <t>112070249</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 250125494681</t>
+  </si>
+  <si>
+    <t>324797407811</t>
+  </si>
+  <si>
+    <t>324796267992</t>
+  </si>
+  <si>
+    <t>203871923981</t>
+  </si>
+  <si>
+    <t>157440695362</t>
+  </si>
+  <si>
+    <t>728220826311233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 728220772340100</t>
+  </si>
+  <si>
+    <t>172081486007387</t>
+  </si>
+  <si>
+    <t>81619869795048</t>
+  </si>
+  <si>
+    <t>728221366022893</t>
+  </si>
+  <si>
+    <t>728221312051740</t>
+  </si>
+  <si>
+    <t>215521235515777</t>
+  </si>
+  <si>
+    <t>453212135530955</t>
+  </si>
+  <si>
+    <t>728222013676021</t>
+  </si>
+  <si>
+    <t>728221959704844</t>
+  </si>
+  <si>
+    <t>406636926868919</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 268145118034579</t>
+  </si>
+  <si>
+    <t>728222499417163</t>
+  </si>
+  <si>
+    <t>728222445445968</t>
+  </si>
+  <si>
+    <t>315445115719487</t>
+  </si>
+  <si>
+    <t>543737549152182</t>
+  </si>
+  <si>
+    <t>728223362953027</t>
+  </si>
+  <si>
+    <t>728223308981800</t>
+  </si>
+  <si>
+    <t>368965392927379</t>
+  </si>
+  <si>
+    <t>593746072923534</t>
+  </si>
+  <si>
+    <t>728223578838443</t>
+  </si>
+  <si>
+    <t>728223524867208</t>
+  </si>
+  <si>
+    <t>360534846893207</t>
+  </si>
+  <si>
+    <t>227028230927560</t>
+  </si>
+  <si>
+    <t>728224064580629</t>
+  </si>
+  <si>
+    <t>728224010609376</t>
+  </si>
+  <si>
+    <t>675781249245365</t>
+  </si>
+  <si>
+    <t>283903521925155</t>
+  </si>
+  <si>
+    <t>728224334437399</t>
+  </si>
+  <si>
+    <t>728224280466136</t>
+  </si>
+  <si>
+    <t>473510720709761</t>
+  </si>
+  <si>
+    <t>369254527435688</t>
+  </si>
+  <si>
+    <t>728226277406143</t>
+  </si>
+  <si>
+    <t>728226223434808</t>
+  </si>
+  <si>
+    <t>537079958915795</t>
+  </si>
+  <si>
+    <t>718253357315502</t>
+  </si>
+  <si>
+    <t>728223416926289</t>
+  </si>
+  <si>
+    <t>728223362955060</t>
+  </si>
+  <si>
+    <t>551997520373233</t>
+  </si>
+  <si>
+    <t>275575542422503</t>
+  </si>
+  <si>
+    <t>35349288354953551787</t>
+  </si>
+  <si>
+    <t>35349288342773470320</t>
+  </si>
+  <si>
+    <t>30682626908155412561</t>
+  </si>
+  <si>
+    <t>29537270074109925494</t>
+  </si>
+  <si>
+    <t>28967443901453773879</t>
+  </si>
+  <si>
+    <t>28967443890635355840</t>
+  </si>
+  <si>
+    <t>14289808256620422977</t>
+  </si>
+  <si>
+    <t>11599433804998154703</t>
+  </si>
+  <si>
+    <t>28333620119078597879</t>
+  </si>
+  <si>
+    <t>28333620107862453384</t>
+  </si>
+  <si>
+    <t>1534732675251808855</t>
+  </si>
+  <si>
+    <t>2549466937983917009</t>
+  </si>
+  <si>
+    <t>72097457808913934669</t>
+  </si>
+  <si>
+    <t>72097457791773828960</t>
+  </si>
+  <si>
+    <t>8934383875724340461</t>
+  </si>
+  <si>
+    <t>12474692669494766394</t>
+  </si>
+  <si>
+    <t>17849010270573413599</t>
+  </si>
+  <si>
+    <t>17849010261623743440</t>
+  </si>
+  <si>
+    <t>1843898789186302969</t>
+  </si>
+  <si>
+    <t>4059108997998235788</t>
+  </si>
+  <si>
+    <t>18708702781883546357</t>
+  </si>
+  <si>
+    <t>18708702773172187776</t>
+  </si>
+  <si>
+    <t>13606021999849307939</t>
+  </si>
+  <si>
+    <t>2796115953782551376</t>
+  </si>
+  <si>
+    <t>71753602630189735447</t>
+  </si>
+  <si>
+    <t>71753602613084964936</t>
+  </si>
+  <si>
+    <t>40867971160662886325</t>
+  </si>
+  <si>
+    <t>44046439489132273106</t>
+  </si>
+  <si>
+    <t>72260452925175934669</t>
+  </si>
+  <si>
+    <t>72260452908013828960</t>
+  </si>
+  <si>
+    <t>31061425683556534503</t>
+  </si>
+  <si>
+    <t>56712993368288637363</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17849010261623743440</t>
+  </si>
+  <si>
+    <t>15842101220060181401</t>
+  </si>
+  <si>
+    <t>8648742102841617113</t>
+  </si>
+  <si>
+    <t>14313637302243909163</t>
+  </si>
+  <si>
+    <t>14313637294472696688</t>
+  </si>
+  <si>
+    <t>13644430940932031737</t>
+  </si>
+  <si>
+    <t>2768594216466875648</t>
+  </si>
+  <si>
+    <t>131988852191266878231168631523979564769</t>
+  </si>
+  <si>
+    <t>131988852191266878208131855499032505620</t>
+  </si>
+  <si>
+    <t>54241818553068314661298073055686238457</t>
+  </si>
+  <si>
+    <t>43402914014322706088973384009208745124</t>
+  </si>
+  <si>
+    <t>148197553308666665320295600244468888989</t>
+  </si>
+  <si>
+    <t>148197553308666665295846709335577777980</t>
+  </si>
+  <si>
+    <t>138668527184173655212525752266120395003</t>
+  </si>
+  <si>
+    <t>68038965293924905356577042829909754573</t>
+  </si>
+  <si>
+    <t>225133433128273200940986386855256556013</t>
+  </si>
+  <si>
+    <t>225133433128273200909635684167550042688</t>
+  </si>
+  <si>
+    <t>39584887073779571057069652963796148617</t>
+  </si>
+  <si>
+    <t>128693790706157894688735582989951874446</t>
+  </si>
+  <si>
+    <t>266378949330452088537049935548466057109</t>
+  </si>
+  <si>
+    <t>266378949330452088503127561557274614220</t>
+  </si>
+  <si>
+    <t>90188729366494116143304603070570304767</t>
+  </si>
+  <si>
+    <t>0.000507354736328125</t>
+  </si>
+  <si>
+    <t>74829413980946730345131647811923301124</t>
+  </si>
+  <si>
+    <t>329189905131238149783117716749961797789</t>
+  </si>
+  <si>
+    <t>329189905131238149745098924810563595580</t>
+  </si>
+  <si>
+    <t>286398768373832564791686489497811579581</t>
+  </si>
+  <si>
+    <t>122479736987849051472263967061594293372</t>
+  </si>
+  <si>
+    <t>737442100194022619162728618724475312007</t>
+  </si>
+  <si>
+    <t>737442100194022619106031438268412362296</t>
+  </si>
+  <si>
+    <t>420805605483925530877888535371604361099</t>
+  </si>
+  <si>
+    <t>0.0010068416595458984</t>
+  </si>
+  <si>
+    <t>239309735267501042704685376176122548337</t>
+  </si>
+  <si>
+    <t>836653355490256883375156849446324234999</t>
+  </si>
+  <si>
+    <t>836653355490256883314804366312734720000</t>
+  </si>
+  <si>
+    <t>635289392711097920418637453147556067391</t>
+  </si>
+  <si>
+    <t>774946434973140384621993330323027641487</t>
+  </si>
+  <si>
+    <t>1067503217966994375547129552734653413789</t>
+  </si>
+  <si>
+    <t>1067503217966994375479196537318545355580</t>
+  </si>
+  <si>
+    <t>472392499734892375955554047500891631331</t>
+  </si>
+  <si>
+    <t>446161917296336778655386843476720511193</t>
+  </si>
+  <si>
+    <t>1621553653894424535090414062939369747143</t>
+  </si>
+  <si>
+    <t>1621553653894424535009484661282499738040</t>
+  </si>
+  <si>
+    <t>211215437230887812359504122281801563017</t>
+  </si>
+  <si>
+    <t>0.0005061626434326172</t>
+  </si>
+  <si>
+    <t>552979012999284579446529822478413863477</t>
+  </si>
+  <si>
+    <t>475159872153120602814922420213805556239</t>
+  </si>
+  <si>
+    <t>475159872153120602759786878646759732760</t>
+  </si>
+  <si>
+    <t>307943888132399753931293840805529500299</t>
+  </si>
+  <si>
+    <t>236199379230753763652531197859466329415</t>
+  </si>
+  <si>
+    <t>0.00032067298889160156</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,8 +1425,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -568,6 +1437,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,22 +1752,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13</v>
       </c>
@@ -943,7 +1814,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
@@ -967,7 +1838,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19</v>
       </c>
@@ -991,7 +1862,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -1015,7 +1886,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>29</v>
       </c>
@@ -1039,7 +1910,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31</v>
       </c>
@@ -1063,7 +1934,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37</v>
       </c>
@@ -1087,7 +1958,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>41</v>
       </c>
@@ -1111,7 +1982,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>43</v>
       </c>
@@ -1135,433 +2006,433 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" s="1"/>
     </row>
   </sheetData>
@@ -1570,30 +2441,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K448"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="42" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" customWidth="1"/>
-    <col min="10" max="10" width="7.08984375" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="46.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1627,8 +2498,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>99</v>
       </c>
       <c r="B2" s="2">
@@ -1637,208 +2508,363 @@
       <c r="C2" s="2">
         <v>17</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F2" s="2">
         <v>55</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
+      <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>31</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="G3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
       <c r="B4" s="2">
         <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>37</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F4" s="2">
         <v>665</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
+      <c r="G4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="2">
         <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>41</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F5" s="2">
         <v>1093</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
+      <c r="G5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>43</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="G6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>43</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
+      <c r="G7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>43</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="G8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>43</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
+      <c r="G9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>37</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+      <c r="G10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4">
+      <c r="G11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2">
         <v>17</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>37</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1851,8 +2877,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="2">
@@ -1861,189 +2887,330 @@
       <c r="C14" s="2">
         <v>509</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
+      <c r="G14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="2">
         <v>541</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
+      <c r="G15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>503</v>
       </c>
       <c r="C16" s="2">
         <v>563</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
+      <c r="G16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="2">
         <v>521</v>
       </c>
       <c r="C17" s="2">
         <v>563</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+      <c r="G17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="B18" s="2">
         <v>541</v>
       </c>
       <c r="C18" s="2">
         <v>563</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
+      <c r="G18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
       <c r="B19" s="2">
         <v>557</v>
       </c>
       <c r="C19" s="2">
         <v>563</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
+      <c r="G19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
       <c r="B20" s="2">
         <v>521</v>
       </c>
       <c r="C20" s="2">
         <v>569</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+      <c r="G20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>541</v>
       </c>
       <c r="C21" s="2">
         <v>569</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+      <c r="G21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
       <c r="B22" s="2">
         <v>557</v>
       </c>
       <c r="C22" s="2">
         <v>569</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
+      <c r="G22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="2">
         <v>523</v>
       </c>
       <c r="C23" s="2">
         <v>569</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2051,13 +3218,12 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="2">
@@ -2066,189 +3232,329 @@
       <c r="C25" s="2">
         <v>23687</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
+      <c r="G25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
       <c r="B26" s="2">
         <v>23663</v>
       </c>
       <c r="C26" s="2">
         <v>23719</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
+      <c r="G26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
       <c r="B27" s="2">
         <v>23671</v>
       </c>
       <c r="C27" s="2">
         <v>23719</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
+      <c r="G27" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
       <c r="B28" s="2">
         <v>23689</v>
       </c>
       <c r="C28" s="2">
         <v>23719</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
+      <c r="G28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
       <c r="B29" s="2">
         <v>23663</v>
       </c>
       <c r="C29" s="2">
         <v>23743</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
+      <c r="G29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
       <c r="B30" s="2">
         <v>23671</v>
       </c>
       <c r="C30" s="2">
         <v>23743</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
+      <c r="G30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="2">
         <v>23687</v>
       </c>
       <c r="C31" s="2">
         <v>23743</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
+      <c r="G31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
       <c r="B32" s="2">
         <v>23719</v>
       </c>
       <c r="C32" s="2">
         <v>23743</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
+      <c r="G32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
       <c r="B33" s="2">
         <v>23741</v>
       </c>
       <c r="C33" s="2">
         <v>23743</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
+      <c r="G33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
       <c r="B34" s="2">
         <v>23677</v>
       </c>
       <c r="C34" s="2">
         <v>23687</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2261,8 +3567,8 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="2">
@@ -2271,189 +3577,329 @@
       <c r="C36" s="2">
         <v>569893</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
+      <c r="G36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
+      <c r="G37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
+      <c r="G38" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
+      <c r="G39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
+      <c r="G40" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
+      <c r="G41" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
       <c r="B42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
+      <c r="G42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
+      <c r="G43" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
+      <c r="G44" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G45" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2466,8 +3912,8 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -2476,189 +3922,329 @@
       <c r="C47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
+      <c r="G47" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
+      <c r="G48" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
+      <c r="G49" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
       <c r="B50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
+      <c r="G50" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
       <c r="B51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
+      <c r="G51" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
       <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
+      <c r="G52" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
       <c r="B53" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
+      <c r="G53" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
+      <c r="G54" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
       <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="F55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
+      <c r="G55" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
       <c r="B56" s="2">
         <v>26985571</v>
       </c>
       <c r="C56" s="2">
         <v>26985659</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="F56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G56" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2671,8 +4257,8 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2681,189 +4267,329 @@
       <c r="C58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="F58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
+      <c r="G58" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
       <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="F59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="4" t="s">
+      <c r="G59" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
+      <c r="D60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="8"/>
+      <c r="G60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
       <c r="B61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="F61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="8"/>
+      <c r="G61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
       <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="F62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
+      <c r="G62" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
       <c r="B63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="F63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
+      <c r="G63" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
       <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="F64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
+      <c r="G64" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
       <c r="B65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="F65" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="8"/>
+      <c r="G65" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="F66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
+      <c r="G66" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
       <c r="B67" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="F67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G67" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2876,197 +4602,339 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="F69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
+      <c r="G69" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
       <c r="B70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="F70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
+      <c r="G70" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="F71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
+      <c r="G71" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
       <c r="B72" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="F72" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
+      <c r="G72" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
       <c r="B73" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>403</v>
+      </c>
       <c r="F73" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
+      <c r="G73" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
       <c r="B74" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="F74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
+      <c r="G74" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="F75" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
+      <c r="G75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="F76" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="8"/>
+      <c r="G76" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="F77" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
+      <c r="G77" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
       <c r="B78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>425</v>
+      </c>
       <c r="F78" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G78" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3075,7 +4943,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3084,7 +4952,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3093,7 +4961,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3102,7 +4970,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3111,7 +4979,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3120,7 +4988,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3129,7 +4997,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3138,7 +5006,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3147,7 +5015,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3156,7 +5024,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3165,7 +5033,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3174,7 +5042,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3183,7 +5051,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3192,7 +5060,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3201,7 +5069,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3210,7 +5078,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3219,7 +5087,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3228,7 +5096,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3237,7 +5105,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3246,7 +5114,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3255,7 +5123,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3264,7 +5132,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3273,7 +5141,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3282,7 +5150,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3291,7 +5159,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3300,7 +5168,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3309,7 +5177,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3318,7 +5186,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3327,7 +5195,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3336,7 +5204,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3345,7 +5213,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3354,7 +5222,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3363,7 +5231,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3372,7 +5240,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3381,7 +5249,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3390,7 +5258,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3399,7 +5267,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3408,7 +5276,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3417,7 +5285,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3426,7 +5294,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3435,7 +5303,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3444,7 +5312,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3453,7 +5321,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3462,7 +5330,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3471,7 +5339,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3480,7 +5348,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3489,7 +5357,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3498,7 +5366,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3507,7 +5375,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3516,7 +5384,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3525,7 +5393,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3534,7 +5402,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3543,7 +5411,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3552,7 +5420,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3561,7 +5429,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3570,7 +5438,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3579,7 +5447,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3588,7 +5456,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3597,7 +5465,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3606,7 +5474,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3615,7 +5483,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3624,7 +5492,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3633,7 +5501,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3642,7 +5510,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3651,7 +5519,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3660,7 +5528,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3669,7 +5537,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3678,7 +5546,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3687,7 +5555,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3696,7 +5564,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3705,7 +5573,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3714,7 +5582,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3723,7 +5591,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3732,7 +5600,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3741,7 +5609,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3750,7 +5618,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3759,7 +5627,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3768,7 +5636,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3777,7 +5645,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3786,7 +5654,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3795,7 +5663,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3804,7 +5672,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3813,7 +5681,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3822,7 +5690,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3831,7 +5699,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3840,7 +5708,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3849,7 +5717,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3858,7 +5726,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3867,7 +5735,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3876,7 +5744,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3885,7 +5753,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3894,7 +5762,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3903,7 +5771,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3912,7 +5780,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3921,7 +5789,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3930,7 +5798,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3939,7 +5807,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3948,7 +5816,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3957,7 +5825,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3966,7 +5834,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3975,7 +5843,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3984,7 +5852,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3993,7 +5861,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4002,7 +5870,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4011,7 +5879,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4020,7 +5888,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4029,7 +5897,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4038,7 +5906,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4047,7 +5915,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4056,7 +5924,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4065,7 +5933,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4074,7 +5942,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4083,7 +5951,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4092,7 +5960,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4101,7 +5969,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -4110,7 +5978,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4119,7 +5987,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4128,7 +5996,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4137,7 +6005,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4146,7 +6014,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4155,7 +6023,7 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4164,7 +6032,7 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4173,7 +6041,7 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4182,7 +6050,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4191,7 +6059,7 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4200,7 +6068,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4209,7 +6077,7 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -4218,7 +6086,7 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4227,7 +6095,7 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4236,7 +6104,7 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4245,7 +6113,7 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -4254,7 +6122,7 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4263,7 +6131,7 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4272,7 +6140,7 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -4281,7 +6149,7 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -4290,7 +6158,7 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -4299,7 +6167,7 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -4308,7 +6176,7 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -4317,7 +6185,7 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -4326,7 +6194,7 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -4335,7 +6203,7 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -4344,7 +6212,7 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -4353,7 +6221,7 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -4362,7 +6230,7 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -4371,7 +6239,7 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -4380,7 +6248,7 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -4389,7 +6257,7 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -4398,7 +6266,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -4407,7 +6275,7 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -4416,7 +6284,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -4425,7 +6293,7 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -4434,7 +6302,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -4443,7 +6311,7 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -4452,7 +6320,7 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -4461,7 +6329,7 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -4470,7 +6338,7 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -4479,7 +6347,7 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -4488,7 +6356,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -4497,7 +6365,7 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -4506,7 +6374,7 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -4515,7 +6383,7 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -4524,7 +6392,7 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -4533,7 +6401,7 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -4542,7 +6410,7 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -4551,7 +6419,7 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -4560,7 +6428,7 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -4569,7 +6437,7 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -4578,7 +6446,7 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -4587,7 +6455,7 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -4596,7 +6464,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -4605,7 +6473,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -4614,7 +6482,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -4623,7 +6491,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -4632,7 +6500,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -4641,7 +6509,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -4650,7 +6518,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -4659,7 +6527,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -4668,7 +6536,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -4677,7 +6545,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -4686,7 +6554,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -4695,7 +6563,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -4704,7 +6572,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -4713,7 +6581,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -4722,7 +6590,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -4731,7 +6599,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -4740,7 +6608,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -4749,7 +6617,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -4758,7 +6626,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -4767,7 +6635,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -4776,7 +6644,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -4785,7 +6653,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -4794,7 +6662,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -4803,7 +6671,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -4812,7 +6680,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -4821,7 +6689,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -4830,7 +6698,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -4839,7 +6707,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -4848,7 +6716,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -4857,7 +6725,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -4866,7 +6734,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -4875,7 +6743,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -4884,7 +6752,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -4893,7 +6761,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -4902,7 +6770,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -4911,7 +6779,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -4920,7 +6788,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -4929,7 +6797,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -4938,7 +6806,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -4947,7 +6815,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -4956,7 +6824,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -4965,7 +6833,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -4974,7 +6842,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -4983,7 +6851,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -4992,7 +6860,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -5001,7 +6869,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -5010,7 +6878,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -5019,7 +6887,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -5028,7 +6896,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -5037,7 +6905,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -5046,7 +6914,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -5055,7 +6923,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -5064,7 +6932,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -5073,7 +6941,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -5082,7 +6950,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -5091,7 +6959,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -5100,7 +6968,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -5109,7 +6977,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -5118,7 +6986,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -5127,7 +6995,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -5136,7 +7004,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -5145,7 +7013,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -5154,7 +7022,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -5163,7 +7031,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -5172,7 +7040,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -5181,7 +7049,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -5190,7 +7058,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -5199,7 +7067,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -5208,7 +7076,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -5217,7 +7085,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -5226,7 +7094,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -5235,7 +7103,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -5244,7 +7112,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -5253,7 +7121,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -5262,7 +7130,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -5271,7 +7139,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -5280,7 +7148,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -5289,7 +7157,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -5298,7 +7166,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -5307,7 +7175,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -5316,7 +7184,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -5325,7 +7193,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -5334,7 +7202,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -5343,7 +7211,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -5352,7 +7220,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -5361,7 +7229,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -5370,7 +7238,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -5379,7 +7247,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -5388,7 +7256,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -5397,7 +7265,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -5406,7 +7274,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -5415,7 +7283,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -5424,7 +7292,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -5433,7 +7301,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -5442,7 +7310,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -5451,7 +7319,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -5460,7 +7328,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -5469,7 +7337,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -5478,7 +7346,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -5487,7 +7355,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -5496,7 +7364,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -5505,7 +7373,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -5514,7 +7382,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -5523,7 +7391,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -5532,7 +7400,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -5541,7 +7409,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -5550,7 +7418,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -5559,7 +7427,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -5568,7 +7436,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -5577,7 +7445,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -5586,7 +7454,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -5595,7 +7463,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -5604,7 +7472,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -5613,7 +7481,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -5622,7 +7490,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -5631,7 +7499,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -5640,7 +7508,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -5649,7 +7517,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -5658,7 +7526,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -5667,7 +7535,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -5676,7 +7544,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -5685,7 +7553,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -5694,7 +7562,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -5703,7 +7571,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -5712,7 +7580,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -5721,7 +7589,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -5730,7 +7598,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -5739,7 +7607,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -5748,7 +7616,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -5757,7 +7625,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -5766,7 +7634,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -5775,7 +7643,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -5784,7 +7652,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -5793,7 +7661,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -5802,7 +7670,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -5811,7 +7679,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -5820,7 +7688,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -5829,7 +7697,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -5838,7 +7706,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -5847,7 +7715,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -5856,7 +7724,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -5865,7 +7733,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -5874,7 +7742,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -5883,7 +7751,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -5892,7 +7760,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -5901,7 +7769,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -5910,7 +7778,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -5919,7 +7787,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -5928,7 +7796,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -5937,7 +7805,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -5946,7 +7814,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -5955,7 +7823,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -5964,7 +7832,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -5973,7 +7841,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -5982,7 +7850,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -5991,7 +7859,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -6000,7 +7868,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -6009,7 +7877,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -6018,7 +7886,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -6027,7 +7895,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -6036,7 +7904,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -6045,7 +7913,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -6054,7 +7922,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -6063,7 +7931,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -6072,7 +7940,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -6081,7 +7949,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -6090,7 +7958,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -6099,7 +7967,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -6108,7 +7976,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -6117,7 +7985,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -6126,7 +7994,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -6135,7 +8003,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -6144,7 +8012,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -6153,7 +8021,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -6162,7 +8030,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -6171,7 +8039,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -6180,7 +8048,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -6189,7 +8057,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -6198,7 +8066,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -6207,7 +8075,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -6216,7 +8084,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -6225,7 +8093,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -6234,7 +8102,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -6243,7 +8111,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -6252,7 +8120,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -6261,7 +8129,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -6270,7 +8138,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -6279,7 +8147,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -6288,7 +8156,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -6297,7 +8165,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -6306,7 +8174,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -6315,7 +8183,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -6324,7 +8192,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -6333,7 +8201,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -6342,7 +8210,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -6351,7 +8219,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -6360,7 +8228,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -6369,7 +8237,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -6378,7 +8246,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
